--- a/Аспекты тестов/Набор тестов для функции endsWith.xlsx
+++ b/Аспекты тестов/Набор тестов для функции endsWith.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS_projects\Programming\18_Korshunov\Аспекты тестов\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Аспекты тестирования" sheetId="2" r:id="rId1"/>
@@ -226,9 +226,6 @@
     <t>endsWithStr</t>
   </si>
   <si>
-    <t>// Определить, заканчивается ли строка с указаной подстроки.</t>
-  </si>
-  <si>
     <t>"other words", someText</t>
   </si>
   <si>
@@ -248,12 +245,6 @@
   </si>
   <si>
     <t>"otherText. omeTex", someText</t>
-  </si>
-  <si>
-    <t>Исходная строка пустая, подстркока пустая;
-Исходная строка пустая, подстрока непустая;
-Исходная строка не пустая, подстрока пустая;
-Исходная строка не пустая, подстрока не пустая</t>
   </si>
   <si>
     <t>Соотношение заполненности строки и подстроки</t>
@@ -371,6 +362,27 @@
   </si>
   <si>
     <t>"otherText = someText(int arg1, bool arg2);", someText</t>
+  </si>
+  <si>
+    <t>// Определить, заканчивается ли строка указаной подстрокой.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Исходная строка пустая, подстркока пустая;
+Исходная строка пустая, подстрока непустая;
+Исходная строка не пустая, подстрока пустая;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Исходная строка не пустая, подстрока не пустая</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -976,8 +988,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:IV21"/>
   <sheetViews>
-    <sheetView zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1248,7 +1260,7 @@
     </row>
     <row r="2" spans="1:256" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="5"/>
@@ -2288,10 +2300,10 @@
     </row>
     <row r="6" spans="1:256" ht="93.6" x14ac:dyDescent="0.45">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
@@ -6436,8 +6448,8 @@
   <sheetPr codeName="Лист2"/>
   <dimension ref="A1:IV17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6720,7 @@
     </row>
     <row r="2" spans="1:256" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -6968,7 +6980,7 @@
     </row>
     <row r="3" spans="1:256" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7748,10 +7760,10 @@
     </row>
     <row r="6" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8010,10 +8022,10 @@
     </row>
     <row r="7" spans="1:256" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8272,10 +8284,10 @@
     </row>
     <row r="8" spans="1:256" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8537,7 +8549,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8799,7 +8811,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
@@ -8807,15 +8819,15 @@
         <v>16</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
@@ -8823,7 +8835,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
@@ -8831,23 +8843,23 @@
         <v>18</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:256" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
@@ -8855,7 +8867,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
